--- a/Stopwords.xlsx
+++ b/Stopwords.xlsx
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="2330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="2333">
   <si>
     <t>لي</t>
   </si>
@@ -7155,6 +7155,15 @@
   </si>
   <si>
     <t>naya</t>
+  </si>
+  <si>
+    <t>na7na</t>
+  </si>
+  <si>
+    <t>houoi</t>
+  </si>
+  <si>
+    <t>hakomli</t>
   </si>
 </sst>
 </file>
@@ -7520,7 +7529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7528,10 +7537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2090"/>
+  <dimension ref="A1:A2093"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2077" workbookViewId="0">
-      <selection activeCell="A2091" sqref="A2091"/>
+    <sheetView tabSelected="1" topLeftCell="A2078" workbookViewId="0">
+      <selection activeCell="A2094" sqref="A2094"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -17987,6 +17996,21 @@
     <row r="2090" spans="1:1" ht="20.25">
       <c r="A2090" s="3" t="s">
         <v>2329</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:1" ht="20.25">
+      <c r="A2091" s="3" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:1" ht="20.25">
+      <c r="A2092" s="3" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:1" ht="20.25">
+      <c r="A2093" s="3" t="s">
+        <v>2332</v>
       </c>
     </row>
   </sheetData>

--- a/Stopwords.xlsx
+++ b/Stopwords.xlsx
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="2333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="2340">
   <si>
     <t>لي</t>
   </si>
@@ -7164,6 +7164,27 @@
   </si>
   <si>
     <t>hakomli</t>
+  </si>
+  <si>
+    <t>hathokom</t>
+  </si>
+  <si>
+    <t>hathoukom</t>
+  </si>
+  <si>
+    <t>melou</t>
+  </si>
+  <si>
+    <t>melhom</t>
+  </si>
+  <si>
+    <t>melha</t>
+  </si>
+  <si>
+    <t>entoum</t>
+  </si>
+  <si>
+    <t>antouma</t>
   </si>
 </sst>
 </file>
@@ -7529,7 +7550,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7537,10 +7558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2093"/>
+  <dimension ref="A1:A2100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2078" workbookViewId="0">
-      <selection activeCell="A2094" sqref="A2094"/>
+    <sheetView tabSelected="1" topLeftCell="A2087" workbookViewId="0">
+      <selection activeCell="A2101" sqref="A2101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -18011,6 +18032,41 @@
     <row r="2093" spans="1:1" ht="20.25">
       <c r="A2093" s="3" t="s">
         <v>2332</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:1" ht="20.25">
+      <c r="A2094" s="3" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:1" ht="20.25">
+      <c r="A2095" s="3" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:1" ht="20.25">
+      <c r="A2096" s="3" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:1" ht="20.25">
+      <c r="A2097" s="3" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:1" ht="20.25">
+      <c r="A2098" s="3" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:1" ht="20.25">
+      <c r="A2099" s="3" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:1" ht="20.25">
+      <c r="A2100" s="3" t="s">
+        <v>2339</v>
       </c>
     </row>
   </sheetData>

--- a/Stopwords.xlsx
+++ b/Stopwords.xlsx
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="2340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="2350">
   <si>
     <t>لي</t>
   </si>
@@ -7185,6 +7185,36 @@
   </si>
   <si>
     <t>antouma</t>
+  </si>
+  <si>
+    <t>blech</t>
+  </si>
+  <si>
+    <t>blechi</t>
+  </si>
+  <si>
+    <t>kifech</t>
+  </si>
+  <si>
+    <t>kifechi</t>
+  </si>
+  <si>
+    <t>wa9techi</t>
+  </si>
+  <si>
+    <t>wa9tech</t>
+  </si>
+  <si>
+    <t>famech</t>
+  </si>
+  <si>
+    <t>famechi</t>
+  </si>
+  <si>
+    <t>fachi</t>
+  </si>
+  <si>
+    <t>fechi</t>
   </si>
 </sst>
 </file>
@@ -7550,7 +7580,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7558,10 +7588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2100"/>
+  <dimension ref="A1:A2110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2087" workbookViewId="0">
-      <selection activeCell="A2101" sqref="A2101"/>
+    <sheetView tabSelected="1" topLeftCell="A2096" workbookViewId="0">
+      <selection activeCell="A2111" sqref="A2111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -18067,6 +18097,56 @@
     <row r="2100" spans="1:1" ht="20.25">
       <c r="A2100" s="3" t="s">
         <v>2339</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:1" ht="20.25">
+      <c r="A2101" s="3" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:1" ht="20.25">
+      <c r="A2102" s="3" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:1" ht="20.25">
+      <c r="A2103" s="3" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:1" ht="20.25">
+      <c r="A2104" s="3" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:1" ht="20.25">
+      <c r="A2105" s="3" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:1" ht="20.25">
+      <c r="A2106" s="3" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:1" ht="20.25">
+      <c r="A2107" s="3" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:1" ht="20.25">
+      <c r="A2108" s="3" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:1" ht="20.25">
+      <c r="A2109" s="3" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:1" ht="20.25">
+      <c r="A2110" s="3" t="s">
+        <v>2349</v>
       </c>
     </row>
   </sheetData>

--- a/Stopwords.xlsx
+++ b/Stopwords.xlsx
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="2340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="2613">
   <si>
     <t>لي</t>
   </si>
@@ -7185,13 +7185,832 @@
   </si>
   <si>
     <t>antouma</t>
+  </si>
+  <si>
+    <t>ونتا</t>
+  </si>
+  <si>
+    <t>kifkom</t>
+  </si>
+  <si>
+    <t>kifak</t>
+  </si>
+  <si>
+    <t>kifna</t>
+  </si>
+  <si>
+    <t>kifha</t>
+  </si>
+  <si>
+    <t>kifi</t>
+  </si>
+  <si>
+    <t>kifoo</t>
+  </si>
+  <si>
+    <t>rao</t>
+  </si>
+  <si>
+    <t>raou</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>raha</t>
+  </si>
+  <si>
+    <t>rahoo</t>
+  </si>
+  <si>
+    <t>yah</t>
+  </si>
+  <si>
+    <t>kan</t>
+  </si>
+  <si>
+    <t>ake</t>
+  </si>
+  <si>
+    <t>اتو</t>
+  </si>
+  <si>
+    <t>أتو</t>
+  </si>
+  <si>
+    <t>yli</t>
+  </si>
+  <si>
+    <t>yali</t>
+  </si>
+  <si>
+    <t>9lt</t>
+  </si>
+  <si>
+    <t>hwa</t>
+  </si>
+  <si>
+    <t>hwe</t>
+  </si>
+  <si>
+    <t>mink</t>
+  </si>
+  <si>
+    <t>minou</t>
+  </si>
+  <si>
+    <t>minnou</t>
+  </si>
+  <si>
+    <t>minhom</t>
+  </si>
+  <si>
+    <t>minha</t>
+  </si>
+  <si>
+    <t>minkom</t>
+  </si>
+  <si>
+    <t>menkom</t>
+  </si>
+  <si>
+    <t>mennou</t>
+  </si>
+  <si>
+    <t>alh</t>
+  </si>
+  <si>
+    <t>أقل</t>
+  </si>
+  <si>
+    <t>بيد</t>
+  </si>
+  <si>
+    <t>تين</t>
+  </si>
+  <si>
+    <t>تينك</t>
+  </si>
+  <si>
+    <t>خلا</t>
+  </si>
+  <si>
+    <t>ريث</t>
+  </si>
+  <si>
+    <t>فلافمن</t>
+  </si>
+  <si>
+    <t>فيفيم</t>
+  </si>
+  <si>
+    <t>كمكم</t>
+  </si>
+  <si>
+    <t>كيت</t>
+  </si>
+  <si>
+    <t>ليت</t>
+  </si>
+  <si>
+    <t>منهامنذ</t>
+  </si>
+  <si>
+    <t>مه</t>
+  </si>
+  <si>
+    <t>نعمها</t>
+  </si>
+  <si>
+    <t>وهويا</t>
+  </si>
+  <si>
+    <t>pa+</t>
+  </si>
+  <si>
+    <t>a+</t>
+  </si>
+  <si>
+    <t>à+</t>
+  </si>
+  <si>
+    <t>بسبب</t>
+  </si>
+  <si>
+    <t>بشكل</t>
+  </si>
+  <si>
+    <t>حاليا</t>
+  </si>
+  <si>
+    <t>صفر</t>
+  </si>
+  <si>
+    <t>امس</t>
+  </si>
+  <si>
+    <t>اكثر</t>
+  </si>
+  <si>
+    <t>مايو</t>
+  </si>
+  <si>
+    <t>مقابل</t>
+  </si>
+  <si>
+    <t>مليار</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> إذ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> فلا</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> في</t>
+  </si>
+  <si>
+    <t>آب</t>
+  </si>
+  <si>
+    <t>آذار</t>
+  </si>
+  <si>
+    <t>آض</t>
+  </si>
+  <si>
+    <t>آل</t>
+  </si>
+  <si>
+    <t>آمينَ</t>
+  </si>
+  <si>
+    <t>آناء</t>
+  </si>
+  <si>
+    <t>آنفا</t>
+  </si>
+  <si>
+    <t>آهاً</t>
+  </si>
+  <si>
+    <t>آهٍ</t>
+  </si>
+  <si>
+    <t>آهِ</t>
+  </si>
+  <si>
+    <t>أبدا</t>
+  </si>
+  <si>
+    <t>أبريل</t>
+  </si>
+  <si>
+    <t>أبو</t>
+  </si>
+  <si>
+    <t>أبٌ</t>
+  </si>
+  <si>
+    <t>أخو</t>
+  </si>
+  <si>
+    <t>أخٌ</t>
+  </si>
+  <si>
+    <t>أربعاء</t>
+  </si>
+  <si>
+    <t>أربعمئة</t>
+  </si>
+  <si>
+    <t>أربعمائة</t>
+  </si>
+  <si>
+    <t>أغسطس</t>
+  </si>
+  <si>
+    <t>أفريل</t>
+  </si>
+  <si>
+    <t>أكتوبر</t>
+  </si>
+  <si>
+    <t>أمامك</t>
+  </si>
+  <si>
+    <t>أمامكَ</t>
+  </si>
+  <si>
+    <t>أمد</t>
+  </si>
+  <si>
+    <t>أمس</t>
+  </si>
+  <si>
+    <t>أمسى</t>
+  </si>
+  <si>
+    <t>أمّا</t>
+  </si>
+  <si>
+    <t>أنتِ</t>
+  </si>
+  <si>
+    <t>أنًّ</t>
+  </si>
+  <si>
+    <t>أنّى</t>
+  </si>
+  <si>
+    <t>أهلا</t>
+  </si>
+  <si>
+    <t>أوت</t>
+  </si>
+  <si>
+    <t>أولالك</t>
+  </si>
+  <si>
+    <t>أوّهْ</t>
+  </si>
+  <si>
+    <t>أى</t>
+  </si>
+  <si>
+    <t>أيار</t>
+  </si>
+  <si>
+    <t>أيلول</t>
+  </si>
+  <si>
+    <t>أيّ</t>
+  </si>
+  <si>
+    <t>أيّان</t>
+  </si>
+  <si>
+    <t>أُفٍّ</t>
+  </si>
+  <si>
+    <t>إحدى</t>
+  </si>
+  <si>
+    <t>إذاً</t>
+  </si>
+  <si>
+    <t>إليكنّ</t>
+  </si>
+  <si>
+    <t>إليكَ</t>
+  </si>
+  <si>
+    <t>إلَيْكَ</t>
+  </si>
+  <si>
+    <t>إلّا</t>
+  </si>
+  <si>
+    <t>إمّا</t>
+  </si>
+  <si>
+    <t>إنَّ</t>
+  </si>
+  <si>
+    <t>إى</t>
+  </si>
+  <si>
+    <t>إيانا</t>
+  </si>
+  <si>
+    <t>إياه</t>
+  </si>
+  <si>
+    <t>إياها</t>
+  </si>
+  <si>
+    <t>إياهم</t>
+  </si>
+  <si>
+    <t>إياهما</t>
+  </si>
+  <si>
+    <t>إياهن</t>
+  </si>
+  <si>
+    <t>إياي</t>
+  </si>
+  <si>
+    <t>إيهٍ</t>
+  </si>
+  <si>
+    <t>االا</t>
+  </si>
+  <si>
+    <t>االتى</t>
+  </si>
+  <si>
+    <t>اربعون</t>
+  </si>
+  <si>
+    <t>اربعين</t>
+  </si>
+  <si>
+    <t>الحالي</t>
+  </si>
+  <si>
+    <t>اليه</t>
+  </si>
+  <si>
+    <t>اليها</t>
+  </si>
+  <si>
+    <t>بضع</t>
+  </si>
+  <si>
+    <t>تارة</t>
+  </si>
+  <si>
+    <t>تاسع</t>
+  </si>
+  <si>
+    <t>تانِ</t>
+  </si>
+  <si>
+    <t>تجاه</t>
+  </si>
+  <si>
+    <t>تخذ</t>
+  </si>
+  <si>
+    <t>ترك</t>
+  </si>
+  <si>
+    <t>تسع</t>
+  </si>
+  <si>
+    <t>تسعة</t>
+  </si>
+  <si>
+    <t>تسعمئة</t>
+  </si>
+  <si>
+    <t>تسعمائة</t>
+  </si>
+  <si>
+    <t>تسعون</t>
+  </si>
+  <si>
+    <t>تسعين</t>
+  </si>
+  <si>
+    <t>تشرين</t>
+  </si>
+  <si>
+    <t>تعسا</t>
+  </si>
+  <si>
+    <t>تعلَّم</t>
+  </si>
+  <si>
+    <t>تكون</t>
+  </si>
+  <si>
+    <t>ثالث</t>
+  </si>
+  <si>
+    <t>ثامن</t>
+  </si>
+  <si>
+    <t>ثان</t>
+  </si>
+  <si>
+    <t>ثاني</t>
+  </si>
+  <si>
+    <t>ثلاثمئة</t>
+  </si>
+  <si>
+    <t>ثلاثمائة</t>
+  </si>
+  <si>
+    <t>ثلاثون</t>
+  </si>
+  <si>
+    <t>ثلاثين</t>
+  </si>
+  <si>
+    <t>ثمان</t>
+  </si>
+  <si>
+    <t>ثمانمئة</t>
+  </si>
+  <si>
+    <t>ثمانون</t>
+  </si>
+  <si>
+    <t>ثمانين</t>
+  </si>
+  <si>
+    <t>ثمنمئة</t>
+  </si>
+  <si>
+    <t>ثمَّ</t>
+  </si>
+  <si>
+    <t>ثمّ</t>
+  </si>
+  <si>
+    <t>ثمّة</t>
+  </si>
+  <si>
+    <t>جانفي</t>
+  </si>
+  <si>
+    <t>جدا</t>
+  </si>
+  <si>
+    <t>جوان</t>
+  </si>
+  <si>
+    <t>جويلية</t>
+  </si>
+  <si>
+    <t>حادي</t>
+  </si>
+  <si>
+    <t>حسب</t>
+  </si>
+  <si>
+    <t>حَذارِ</t>
+  </si>
+  <si>
+    <t>خاصة</t>
+  </si>
+  <si>
+    <t>خال</t>
+  </si>
+  <si>
+    <t>خامس</t>
+  </si>
+  <si>
+    <t>خبَّر</t>
+  </si>
+  <si>
+    <t>خلافا</t>
+  </si>
+  <si>
+    <t>خلف</t>
+  </si>
+  <si>
+    <t>خمس</t>
+  </si>
+  <si>
+    <t>خمسة</t>
+  </si>
+  <si>
+    <t>خمسمئة</t>
+  </si>
+  <si>
+    <t>خمسمائة</t>
+  </si>
+  <si>
+    <t>خمسون</t>
+  </si>
+  <si>
+    <t>خمسين</t>
+  </si>
+  <si>
+    <t>خميس</t>
+  </si>
+  <si>
+    <t>درهم</t>
+  </si>
+  <si>
+    <t>دولار</t>
+  </si>
+  <si>
+    <t>دونك</t>
+  </si>
+  <si>
+    <t>ديسمبر</t>
+  </si>
+  <si>
+    <t>دينار</t>
+  </si>
+  <si>
+    <t>سابع</t>
+  </si>
+  <si>
+    <t>سادس</t>
+  </si>
+  <si>
+    <t>سبتمبر</t>
+  </si>
+  <si>
+    <t>سبع</t>
+  </si>
+  <si>
+    <t>سبعمئة</t>
+  </si>
+  <si>
+    <t>سبعمائة</t>
+  </si>
+  <si>
+    <t>سبعون</t>
+  </si>
+  <si>
+    <t>سبعين</t>
+  </si>
+  <si>
+    <t>ست</t>
+  </si>
+  <si>
+    <t>ستكون</t>
+  </si>
+  <si>
+    <t>ستمئة</t>
+  </si>
+  <si>
+    <t>ستمائة</t>
+  </si>
+  <si>
+    <t>ستون</t>
+  </si>
+  <si>
+    <t>ستين</t>
+  </si>
+  <si>
+    <t>سحقا</t>
+  </si>
+  <si>
+    <t>سرا</t>
+  </si>
+  <si>
+    <t>سرعان</t>
+  </si>
+  <si>
+    <t>طالما</t>
+  </si>
+  <si>
+    <t>عاشر</t>
+  </si>
+  <si>
+    <t>عامة</t>
+  </si>
+  <si>
+    <t>عجبا</t>
+  </si>
+  <si>
+    <t>عشرون</t>
+  </si>
+  <si>
+    <t>عشرين</t>
+  </si>
+  <si>
+    <t>فانه</t>
+  </si>
+  <si>
+    <t>فبراير</t>
+  </si>
+  <si>
+    <t>فكان</t>
+  </si>
+  <si>
+    <t>فلان</t>
+  </si>
+  <si>
+    <t>فلس</t>
+  </si>
+  <si>
+    <t>فيفري</t>
+  </si>
+  <si>
+    <t>كأنّ</t>
+  </si>
+  <si>
+    <t>كأيّ</t>
+  </si>
+  <si>
+    <t>كأيّن</t>
+  </si>
+  <si>
+    <t>كاد</t>
+  </si>
+  <si>
+    <t>كلَّا</t>
+  </si>
+  <si>
+    <t>كلّما</t>
+  </si>
+  <si>
+    <t>لا سيما</t>
+  </si>
+  <si>
+    <t>لازال</t>
+  </si>
+  <si>
+    <t>لايزال</t>
+  </si>
+  <si>
+    <t>لدي</t>
+  </si>
+  <si>
+    <t>مئة</t>
+  </si>
+  <si>
+    <t>مئتان</t>
+  </si>
+  <si>
+    <t>مادام</t>
+  </si>
+  <si>
+    <t>مارس</t>
+  </si>
+  <si>
+    <t>مافتئ</t>
+  </si>
+  <si>
+    <t>ماي</t>
+  </si>
+  <si>
+    <t>مايزال</t>
+  </si>
+  <si>
+    <t>مرّة</t>
+  </si>
+  <si>
+    <t>معها</t>
+  </si>
+  <si>
+    <t>مكانكم</t>
+  </si>
+  <si>
+    <t>مكانكما</t>
+  </si>
+  <si>
+    <t>مكانكنّ</t>
+  </si>
+  <si>
+    <t>مكانَك</t>
+  </si>
+  <si>
+    <t>مليم</t>
+  </si>
+  <si>
+    <t>نوفمبر</t>
+  </si>
+  <si>
+    <t>هيّا</t>
+  </si>
+  <si>
+    <t>هَؤلاء</t>
+  </si>
+  <si>
+    <t>هَاتانِ</t>
+  </si>
+  <si>
+    <t>هَاتَيْنِ</t>
+  </si>
+  <si>
+    <t>هَاتِه</t>
+  </si>
+  <si>
+    <t>هَاتِي</t>
+  </si>
+  <si>
+    <t>هَجْ</t>
+  </si>
+  <si>
+    <t>هَذا</t>
+  </si>
+  <si>
+    <t>هَذانِ</t>
+  </si>
+  <si>
+    <t>هَذَيْنِ</t>
+  </si>
+  <si>
+    <t>هَذِه</t>
+  </si>
+  <si>
+    <t>هَذِي</t>
+  </si>
+  <si>
+    <t>هَيْهات</t>
+  </si>
+  <si>
+    <t>وأبو</t>
+  </si>
+  <si>
+    <t>ولايزال</t>
+  </si>
+  <si>
+    <t>وله</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وانتم </t>
+  </si>
+  <si>
+    <t>شكون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أنتم </t>
+  </si>
+  <si>
+    <t>وكان جا</t>
+  </si>
+  <si>
+    <t>مثلما</t>
+  </si>
+  <si>
+    <t>و هو</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ثلاثون </t>
+  </si>
+  <si>
+    <t>هاهو</t>
+  </si>
+  <si>
+    <t>جايك</t>
+  </si>
+  <si>
+    <t>وقت</t>
+  </si>
+  <si>
+    <t>على الي ما</t>
+  </si>
+  <si>
+    <t>اكثر ناس</t>
+  </si>
+  <si>
+    <t>هوما انتم</t>
+  </si>
+  <si>
+    <t>اكبر</t>
+  </si>
+  <si>
+    <t>مناش</t>
+  </si>
+  <si>
+    <t>مهواش</t>
+  </si>
+  <si>
+    <t>ماهواش</t>
+  </si>
+  <si>
+    <t>ماشي</t>
+  </si>
+  <si>
+    <t>موشو</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7210,6 +8029,12 @@
       <sz val="16"/>
       <name val="Arabic Transparent"/>
       <charset val="178"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -7232,16 +8057,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -7558,10 +8423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2100"/>
+  <dimension ref="A1:A2613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2087" workbookViewId="0">
-      <selection activeCell="A2101" sqref="A2101"/>
+    <sheetView tabSelected="1" topLeftCell="A2602" workbookViewId="0">
+      <selection activeCell="A2614" sqref="A2614:XFD2614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -18069,18 +18934,2592 @@
         <v>2339</v>
       </c>
     </row>
+    <row r="2101" spans="1:1" ht="20.25">
+      <c r="A2101" s="3" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:1" ht="20.25">
+      <c r="A2102" s="3" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:1" ht="20.25">
+      <c r="A2103" s="3" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:1" ht="20.25">
+      <c r="A2104" s="3" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:1" ht="20.25">
+      <c r="A2105" s="3" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:1" ht="20.25">
+      <c r="A2106" s="3" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:1" ht="20.25">
+      <c r="A2107" s="3" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:1" ht="20.25">
+      <c r="A2108" s="3" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:1" ht="20.25">
+      <c r="A2109" s="3" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:1" ht="20.25">
+      <c r="A2110" s="3" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:1" ht="20.25">
+      <c r="A2111" s="3" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:1" ht="20.25">
+      <c r="A2112" s="3" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:1" ht="20.25">
+      <c r="A2113" s="3" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:1" ht="20.25">
+      <c r="A2114" s="3" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:1" ht="20.25">
+      <c r="A2115" s="3" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:1" ht="20.25">
+      <c r="A2116" s="3" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:1" ht="20.25">
+      <c r="A2117" s="3" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:1" ht="20.25">
+      <c r="A2118" s="3" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:1" ht="20.25">
+      <c r="A2119" s="3" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:1" ht="20.25">
+      <c r="A2120" s="3" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:1" ht="20.25">
+      <c r="A2121" s="3" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:1" ht="20.25">
+      <c r="A2122" s="3" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:1" ht="20.25">
+      <c r="A2123" s="3" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:1" ht="20.25">
+      <c r="A2124" s="3" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:1" ht="20.25">
+      <c r="A2125" s="3" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:1" ht="20.25">
+      <c r="A2126" s="3" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:1" ht="20.25">
+      <c r="A2127" s="3" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:1" ht="20.25">
+      <c r="A2128" s="3" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:1" ht="20.25">
+      <c r="A2129" s="3" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:1" ht="20.25">
+      <c r="A2130" s="3" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:1" ht="20.25">
+      <c r="A2131" s="3" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:1">
+      <c r="A2132" s="1" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:1">
+      <c r="A2133" s="1" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:1">
+      <c r="A2134" s="1" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:1">
+      <c r="A2135" s="1" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:1">
+      <c r="A2136" s="1" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:1">
+      <c r="A2137" s="1" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:1">
+      <c r="A2138" s="1" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:1">
+      <c r="A2139" s="1" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:1">
+      <c r="A2140" s="1" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:1">
+      <c r="A2141" s="1" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:1">
+      <c r="A2142" s="1" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:1">
+      <c r="A2143" s="1" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:1">
+      <c r="A2144" s="1" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:1">
+      <c r="A2145" s="1" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:1">
+      <c r="A2146" s="1" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:1">
+      <c r="A2147" s="1" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:1">
+      <c r="A2148" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:1">
+      <c r="A2149" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:1" ht="15.75">
+      <c r="A2150" s="4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:1" ht="15.75">
+      <c r="A2151" s="4" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:1" ht="15.75">
+      <c r="A2152" s="4" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:1" ht="15.75">
+      <c r="A2153" s="4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:1" ht="15.75">
+      <c r="A2154" s="4" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:1" ht="15.75">
+      <c r="A2155" s="4" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:1" ht="15.75">
+      <c r="A2156" s="4" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:1" ht="15.75">
+      <c r="A2157" s="4" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:1" ht="15.75">
+      <c r="A2158" s="4" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:1" ht="15.75">
+      <c r="A2159" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:1" ht="15.75">
+      <c r="A2160" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:1" ht="15.75">
+      <c r="A2161" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:1" ht="15.75">
+      <c r="A2162" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:1" ht="15.75">
+      <c r="A2163" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:1" ht="15.75">
+      <c r="A2164" s="4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:1" ht="15.75">
+      <c r="A2165" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:1" ht="15.75">
+      <c r="A2166" s="4" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:1" ht="15.75">
+      <c r="A2167" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:1" ht="15.75">
+      <c r="A2168" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:1" ht="15.75">
+      <c r="A2169" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:1" ht="15.75">
+      <c r="A2170" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:1" ht="15.75">
+      <c r="A2171" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:1" ht="15.75">
+      <c r="A2172" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:1" ht="15.75">
+      <c r="A2173" s="4" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:1" ht="15.75">
+      <c r="A2174" s="4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:1" ht="15.75">
+      <c r="A2175" s="4" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:1" ht="15.75">
+      <c r="A2176" s="4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:1" ht="15.75">
+      <c r="A2177" s="4" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:1" ht="15.75">
+      <c r="A2178" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:1" ht="15.75">
+      <c r="A2179" s="4" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:1" ht="15.75">
+      <c r="A2180" s="4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:1" ht="15.75">
+      <c r="A2181" s="4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:1" ht="15.75">
+      <c r="A2182" s="4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:1" ht="15.75">
+      <c r="A2183" s="4" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:1" ht="15.75">
+      <c r="A2184" s="4" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:1" ht="15.75">
+      <c r="A2185" s="4" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:1" ht="15.75">
+      <c r="A2186" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:1" ht="15.75">
+      <c r="A2187" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:1" ht="15.75">
+      <c r="A2188" s="4" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:1" ht="15.75">
+      <c r="A2189" s="4" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:1" ht="15.75">
+      <c r="A2190" s="4" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:1" ht="15.75">
+      <c r="A2191" s="4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:1" ht="15.75">
+      <c r="A2192" s="4" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:1" ht="15.75">
+      <c r="A2193" s="4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:1" ht="15.75">
+      <c r="A2194" s="4" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:1" ht="15.75">
+      <c r="A2195" s="4" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:1" ht="15.75">
+      <c r="A2196" s="4" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:1" ht="15.75">
+      <c r="A2197" s="4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:1" ht="15.75">
+      <c r="A2198" s="4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:1" ht="15.75">
+      <c r="A2199" s="4" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:1" ht="15.75">
+      <c r="A2200" s="4" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:1" ht="15.75">
+      <c r="A2201" s="4" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:1" ht="15.75">
+      <c r="A2202" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:1" ht="15.75">
+      <c r="A2203" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:1" ht="15.75">
+      <c r="A2204" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:1" ht="15.75">
+      <c r="A2205" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:1" ht="15.75">
+      <c r="A2206" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:1" ht="15.75">
+      <c r="A2207" s="4" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:1" ht="15.75">
+      <c r="A2208" s="4" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:1" ht="15.75">
+      <c r="A2209" s="4" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:1" ht="15.75">
+      <c r="A2210" s="4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:1" ht="15.75">
+      <c r="A2211" s="4" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:1" ht="15.75">
+      <c r="A2212" s="4" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:1" ht="15.75">
+      <c r="A2213" s="4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:1" ht="15.75">
+      <c r="A2214" s="4" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:1" ht="15.75">
+      <c r="A2215" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:1" ht="15.75">
+      <c r="A2216" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:1" ht="15.75">
+      <c r="A2217" s="4" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:1" ht="15.75">
+      <c r="A2218" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:1" ht="15.75">
+      <c r="A2219" s="4" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:1" ht="15.75">
+      <c r="A2220" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:1" ht="15.75">
+      <c r="A2221" s="4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:1" ht="15.75">
+      <c r="A2222" s="4" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:1" ht="15.75">
+      <c r="A2223" s="4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:1" ht="15.75">
+      <c r="A2224" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:1" ht="15.75">
+      <c r="A2225" s="4" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:1" ht="15.75">
+      <c r="A2226" s="4" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:1" ht="15.75">
+      <c r="A2227" s="4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:1" ht="15.75">
+      <c r="A2228" s="4" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:1" ht="15.75">
+      <c r="A2229" s="4" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:1" ht="15.75">
+      <c r="A2230" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:1" ht="15.75">
+      <c r="A2231" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:1" ht="15.75">
+      <c r="A2232" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:1" ht="15.75">
+      <c r="A2233" s="4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:1" ht="15.75">
+      <c r="A2234" s="4" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:1" ht="15.75">
+      <c r="A2235" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:1" ht="15.75">
+      <c r="A2236" s="4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:1" ht="15.75">
+      <c r="A2237" s="4" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:1" ht="15.75">
+      <c r="A2238" s="4" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:1" ht="15.75">
+      <c r="A2239" s="4" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:1" ht="15.75">
+      <c r="A2240" s="4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:1" ht="15.75">
+      <c r="A2241" s="4" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:1" ht="15.75">
+      <c r="A2242" s="4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:1" ht="15.75">
+      <c r="A2243" s="4" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:1" ht="15.75">
+      <c r="A2244" s="4" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:1" ht="15.75">
+      <c r="A2245" s="4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:1" ht="15.75">
+      <c r="A2246" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:1" ht="15.75">
+      <c r="A2247" s="4" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:1" ht="15.75">
+      <c r="A2248" s="4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:1" ht="15.75">
+      <c r="A2249" s="4" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:1" ht="15.75">
+      <c r="A2250" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:1" ht="15.75">
+      <c r="A2251" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:1" ht="15.75">
+      <c r="A2252" s="4" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:1" ht="15.75">
+      <c r="A2253" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:1" ht="15.75">
+      <c r="A2254" s="4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:1" ht="15.75">
+      <c r="A2255" s="4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:1" ht="15.75">
+      <c r="A2256" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:1" ht="15.75">
+      <c r="A2257" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:1" ht="15.75">
+      <c r="A2258" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:1" ht="15.75">
+      <c r="A2259" s="4" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:1" ht="15.75">
+      <c r="A2260" s="4" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:1" ht="15.75">
+      <c r="A2261" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:1" ht="15.75">
+      <c r="A2262" s="4" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:1" ht="15.75">
+      <c r="A2263" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:1" ht="15.75">
+      <c r="A2264" s="4" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:1" ht="15.75">
+      <c r="A2265" s="4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:1" ht="15.75">
+      <c r="A2266" s="4" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:1" ht="15.75">
+      <c r="A2267" s="4" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:1" ht="15.75">
+      <c r="A2268" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:1" ht="15.75">
+      <c r="A2269" s="4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:1" ht="15.75">
+      <c r="A2270" s="4" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:1" ht="15.75">
+      <c r="A2271" s="4" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:1" ht="15.75">
+      <c r="A2272" s="4" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:1" ht="15.75">
+      <c r="A2273" s="4" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:1" ht="15.75">
+      <c r="A2274" s="4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:1" ht="15.75">
+      <c r="A2275" s="4" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:1" ht="15.75">
+      <c r="A2276" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:1" ht="15.75">
+      <c r="A2277" s="4" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:1" ht="15.75">
+      <c r="A2278" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:1" ht="15.75">
+      <c r="A2279" s="4" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:1" ht="15.75">
+      <c r="A2280" s="4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:1" ht="15.75">
+      <c r="A2281" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:1" ht="15.75">
+      <c r="A2282" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:1" ht="15.75">
+      <c r="A2283" s="4" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:1" ht="15.75">
+      <c r="A2284" s="4" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:1" ht="15.75">
+      <c r="A2285" s="4" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:1" ht="15.75">
+      <c r="A2286" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:1" ht="15.75">
+      <c r="A2287" s="4" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:1" ht="15.75">
+      <c r="A2288" s="4" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:1" ht="15.75">
+      <c r="A2289" s="4" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:1" ht="15.75">
+      <c r="A2290" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:1" ht="15.75">
+      <c r="A2291" s="4" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:1" ht="15.75">
+      <c r="A2292" s="4" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:1" ht="15.75">
+      <c r="A2293" s="4" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:1" ht="15.75">
+      <c r="A2294" s="4" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:1" ht="15.75">
+      <c r="A2295" s="4" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:1" ht="15.75">
+      <c r="A2296" s="4" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:1" ht="15.75">
+      <c r="A2297" s="4" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:1" ht="15.75">
+      <c r="A2298" s="4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:1" ht="15.75">
+      <c r="A2299" s="4" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:1" ht="15.75">
+      <c r="A2300" s="4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:1" ht="15.75">
+      <c r="A2301" s="4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:1" ht="15.75">
+      <c r="A2302" s="4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:1" ht="15.75">
+      <c r="A2303" s="4" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:1" ht="15.75">
+      <c r="A2304" s="4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:1" ht="15.75">
+      <c r="A2305" s="4" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:1" ht="15.75">
+      <c r="A2306" s="4" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:1" ht="15.75">
+      <c r="A2307" s="4" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:1" ht="15.75">
+      <c r="A2308" s="4" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:1" ht="15.75">
+      <c r="A2309" s="4" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:1" ht="15.75">
+      <c r="A2310" s="4" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:1" ht="15.75">
+      <c r="A2311" s="4" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:1" ht="15.75">
+      <c r="A2312" s="4" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:1" ht="15.75">
+      <c r="A2313" s="4" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:1" ht="15.75">
+      <c r="A2314" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:1" ht="15.75">
+      <c r="A2315" s="4" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:1" ht="15.75">
+      <c r="A2316" s="4" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:1" ht="15.75">
+      <c r="A2317" s="4" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:1" ht="15.75">
+      <c r="A2318" s="4" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:1" ht="15.75">
+      <c r="A2319" s="4" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:1" ht="15.75">
+      <c r="A2320" s="4" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:1" ht="15.75">
+      <c r="A2321" s="4" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:1" ht="15.75">
+      <c r="A2322" s="4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:1" ht="15.75">
+      <c r="A2323" s="4" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:1" ht="15.75">
+      <c r="A2324" s="4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:1" ht="15.75">
+      <c r="A2325" s="4" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:1" ht="15.75">
+      <c r="A2326" s="4" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:1" ht="15.75">
+      <c r="A2327" s="4" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:1" ht="15.75">
+      <c r="A2328" s="4" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:1" ht="15.75">
+      <c r="A2329" s="4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:1" ht="15.75">
+      <c r="A2330" s="4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:1" ht="15.75">
+      <c r="A2331" s="4" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:1" ht="15.75">
+      <c r="A2332" s="4" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:1" ht="15.75">
+      <c r="A2333" s="4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:1" ht="15.75">
+      <c r="A2334" s="4" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:1" ht="15.75">
+      <c r="A2335" s="4" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:1" ht="15.75">
+      <c r="A2336" s="4" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:1" ht="15.75">
+      <c r="A2337" s="4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:1" ht="15.75">
+      <c r="A2338" s="4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:1" ht="15.75">
+      <c r="A2339" s="4" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:1" ht="15.75">
+      <c r="A2340" s="4" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:1" ht="15.75">
+      <c r="A2341" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:1" ht="15.75">
+      <c r="A2342" s="4" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:1" ht="15.75">
+      <c r="A2343" s="4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:1" ht="15.75">
+      <c r="A2344" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:1" ht="15.75">
+      <c r="A2345" s="4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:1" ht="15.75">
+      <c r="A2346" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:1" ht="15.75">
+      <c r="A2347" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:1" ht="15.75">
+      <c r="A2348" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:1" ht="15.75">
+      <c r="A2349" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:1" ht="15.75">
+      <c r="A2350" s="4" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:1" ht="15.75">
+      <c r="A2351" s="4" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:1" ht="15.75">
+      <c r="A2352" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:1" ht="15.75">
+      <c r="A2353" s="4" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:1" ht="15.75">
+      <c r="A2354" s="4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:1" ht="15.75">
+      <c r="A2355" s="4" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:1" ht="15.75">
+      <c r="A2356" s="4" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:1" ht="15.75">
+      <c r="A2357" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:1" ht="15.75">
+      <c r="A2358" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:1" ht="15.75">
+      <c r="A2359" s="4" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:1" ht="15.75">
+      <c r="A2360" s="4" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:1" ht="15.75">
+      <c r="A2361" s="4" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:1" ht="15.75">
+      <c r="A2362" s="4" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:1" ht="15.75">
+      <c r="A2363" s="4" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:1" ht="15.75">
+      <c r="A2364" s="4" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:1" ht="15.75">
+      <c r="A2365" s="4" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:1" ht="15.75">
+      <c r="A2366" s="4" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:1" ht="15.75">
+      <c r="A2367" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:1" ht="15.75">
+      <c r="A2368" s="4" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:1" ht="15.75">
+      <c r="A2369" s="4" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:1" ht="15.75">
+      <c r="A2370" s="4" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:1" ht="15.75">
+      <c r="A2371" s="4" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:1" ht="15.75">
+      <c r="A2372" s="4" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:1" ht="15.75">
+      <c r="A2373" s="4" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:1" ht="15.75">
+      <c r="A2374" s="4" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:1" ht="15.75">
+      <c r="A2375" s="4" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:1" ht="15.75">
+      <c r="A2376" s="4" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:1" ht="15.75">
+      <c r="A2377" s="4" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:1" ht="15.75">
+      <c r="A2378" s="4" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:1" ht="15.75">
+      <c r="A2379" s="4" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:1" ht="15.75">
+      <c r="A2380" s="4" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:1" ht="15.75">
+      <c r="A2381" s="4" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:1" ht="15.75">
+      <c r="A2382" s="4" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:1" ht="15.75">
+      <c r="A2383" s="4" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:1" ht="15.75">
+      <c r="A2384" s="4" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:1" ht="15.75">
+      <c r="A2385" s="4" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:1" ht="15.75">
+      <c r="A2386" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:1" ht="15.75">
+      <c r="A2387" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:1" ht="15.75">
+      <c r="A2388" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:1" ht="15.75">
+      <c r="A2389" s="4" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:1" ht="15.75">
+      <c r="A2390" s="4" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:1" ht="15.75">
+      <c r="A2391" s="4" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:1">
+      <c r="A2392" s="5" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:1">
+      <c r="A2393" s="5" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:1">
+      <c r="A2394" s="5" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:1">
+      <c r="A2395" s="5" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:1">
+      <c r="A2396" s="5" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:1">
+      <c r="A2397" s="5" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:1">
+      <c r="A2398" s="5" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:1">
+      <c r="A2399" s="5" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:1">
+      <c r="A2400" s="5" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:1">
+      <c r="A2401" s="5" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:1">
+      <c r="A2402" s="5" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:1">
+      <c r="A2403" s="5" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:1">
+      <c r="A2404" s="5" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:1">
+      <c r="A2405" s="5" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:1">
+      <c r="A2406" s="5" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:1">
+      <c r="A2407" s="5" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:1">
+      <c r="A2408" s="5" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:1">
+      <c r="A2409" s="5" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:1">
+      <c r="A2410" s="5" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:1">
+      <c r="A2411" s="5" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:1">
+      <c r="A2412" s="5" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:1">
+      <c r="A2413" s="5" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:1">
+      <c r="A2414" s="5" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:1">
+      <c r="A2415" s="5" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:1">
+      <c r="A2416" s="5" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:1">
+      <c r="A2417" s="5" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:1">
+      <c r="A2418" s="5" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:1">
+      <c r="A2419" s="5" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:1">
+      <c r="A2420" s="5" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:1">
+      <c r="A2421" s="5" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:1">
+      <c r="A2422" s="5" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:1">
+      <c r="A2423" s="5" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:1">
+      <c r="A2424" s="5" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:1">
+      <c r="A2425" s="5" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:1">
+      <c r="A2426" s="5" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:1">
+      <c r="A2427" s="5" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:1">
+      <c r="A2428" s="5" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:1">
+      <c r="A2429" s="5" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:1">
+      <c r="A2430" s="5" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:1">
+      <c r="A2431" s="5" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:1">
+      <c r="A2432" s="5" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:1">
+      <c r="A2433" s="5" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:1">
+      <c r="A2434" s="5" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:1">
+      <c r="A2435" s="5" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:1">
+      <c r="A2436" s="5" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:1">
+      <c r="A2437" s="5" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:1">
+      <c r="A2438" s="5" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:1">
+      <c r="A2439" s="5" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:1">
+      <c r="A2440" s="5" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:1">
+      <c r="A2441" s="5" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:1">
+      <c r="A2442" s="5" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:1">
+      <c r="A2443" s="5" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:1">
+      <c r="A2444" s="5" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:1">
+      <c r="A2445" s="5" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:1">
+      <c r="A2446" s="5" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:1">
+      <c r="A2447" s="5" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:1">
+      <c r="A2448" s="5" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:1">
+      <c r="A2449" s="5" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:1">
+      <c r="A2450" s="5" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:1">
+      <c r="A2451" s="5" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:1">
+      <c r="A2452" s="5" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:1">
+      <c r="A2453" s="5" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:1">
+      <c r="A2454" s="5" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:1">
+      <c r="A2455" s="5" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:1">
+      <c r="A2456" s="5" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:1">
+      <c r="A2457" s="5" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:1">
+      <c r="A2458" s="5" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:1">
+      <c r="A2459" s="5" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:1">
+      <c r="A2460" s="5" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:1">
+      <c r="A2461" s="5" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:1">
+      <c r="A2462" s="5" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:1">
+      <c r="A2463" s="5" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:1">
+      <c r="A2464" s="5" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:1">
+      <c r="A2465" s="5" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:1">
+      <c r="A2466" s="5" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:1">
+      <c r="A2467" s="5" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:1">
+      <c r="A2468" s="5" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:1">
+      <c r="A2469" s="5" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:1">
+      <c r="A2470" s="5" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:1">
+      <c r="A2471" s="5" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:1">
+      <c r="A2472" s="5" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:1">
+      <c r="A2473" s="5" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:1">
+      <c r="A2474" s="5" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:1">
+      <c r="A2475" s="5" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:1">
+      <c r="A2476" s="5" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:1">
+      <c r="A2477" s="5" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:1">
+      <c r="A2478" s="5" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:1">
+      <c r="A2479" s="5" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:1">
+      <c r="A2480" s="5" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:1">
+      <c r="A2481" s="5" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:1">
+      <c r="A2482" s="5" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:1">
+      <c r="A2483" s="5" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:1">
+      <c r="A2484" s="5" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:1">
+      <c r="A2485" s="5" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:1">
+      <c r="A2486" s="5" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:1">
+      <c r="A2487" s="5" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:1">
+      <c r="A2488" s="5" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:1">
+      <c r="A2489" s="5" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:1">
+      <c r="A2490" s="5" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:1">
+      <c r="A2491" s="5" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:1">
+      <c r="A2492" s="5" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:1">
+      <c r="A2493" s="5" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:1">
+      <c r="A2494" s="5" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:1">
+      <c r="A2495" s="5" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:1">
+      <c r="A2496" s="5" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:1">
+      <c r="A2497" s="5" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:1">
+      <c r="A2498" s="5" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:1">
+      <c r="A2499" s="5" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:1">
+      <c r="A2500" s="5" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:1">
+      <c r="A2501" s="5" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:1">
+      <c r="A2502" s="5" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:1">
+      <c r="A2503" s="5" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:1">
+      <c r="A2504" s="5" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:1">
+      <c r="A2505" s="5" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:1">
+      <c r="A2506" s="5" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:1">
+      <c r="A2507" s="5" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:1">
+      <c r="A2508" s="5" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:1">
+      <c r="A2509" s="5" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:1">
+      <c r="A2510" s="5" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:1">
+      <c r="A2511" s="5" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:1">
+      <c r="A2512" s="5" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:1">
+      <c r="A2513" s="5" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:1">
+      <c r="A2514" s="5" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:1">
+      <c r="A2515" s="5" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:1">
+      <c r="A2516" s="5" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:1">
+      <c r="A2517" s="5" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:1">
+      <c r="A2518" s="5" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:1">
+      <c r="A2519" s="5" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:1">
+      <c r="A2520" s="5" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:1">
+      <c r="A2521" s="5" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:1">
+      <c r="A2522" s="5" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:1">
+      <c r="A2523" s="5" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:1">
+      <c r="A2524" s="5" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:1">
+      <c r="A2525" s="5" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:1">
+      <c r="A2526" s="5" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:1">
+      <c r="A2527" s="5" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:1">
+      <c r="A2528" s="5" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:1">
+      <c r="A2529" s="5" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:1">
+      <c r="A2530" s="5" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:1">
+      <c r="A2531" s="5" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:1">
+      <c r="A2532" s="5" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:1">
+      <c r="A2533" s="5" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:1">
+      <c r="A2534" s="5" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:1">
+      <c r="A2535" s="5" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:1">
+      <c r="A2536" s="5" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:1">
+      <c r="A2537" s="5" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:1">
+      <c r="A2538" s="5" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:1">
+      <c r="A2539" s="5" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:1">
+      <c r="A2540" s="5" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:1">
+      <c r="A2541" s="5" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:1">
+      <c r="A2542" s="5" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:1">
+      <c r="A2543" s="5" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:1">
+      <c r="A2544" s="5" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:1">
+      <c r="A2545" s="5" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:1">
+      <c r="A2546" s="5" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:1">
+      <c r="A2547" s="5" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:1">
+      <c r="A2548" s="5" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:1">
+      <c r="A2549" s="5" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:1">
+      <c r="A2550" s="5" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:1">
+      <c r="A2551" s="5" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:1">
+      <c r="A2552" s="5" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:1">
+      <c r="A2553" s="5" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:1">
+      <c r="A2554" s="5" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:1">
+      <c r="A2555" s="5" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:1">
+      <c r="A2556" s="5" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:1">
+      <c r="A2557" s="5" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:1">
+      <c r="A2558" s="5" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:1">
+      <c r="A2559" s="5" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:1">
+      <c r="A2560" s="5" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:1">
+      <c r="A2561" s="5" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:1">
+      <c r="A2562" s="5" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:1">
+      <c r="A2563" s="5" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:1">
+      <c r="A2564" s="5" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:1">
+      <c r="A2565" s="5" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:1">
+      <c r="A2566" s="5" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:1">
+      <c r="A2567" s="5" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:1">
+      <c r="A2568" s="5" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:1">
+      <c r="A2569" s="5" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:1">
+      <c r="A2570" s="5" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:1">
+      <c r="A2571" s="5" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:1">
+      <c r="A2572" s="5" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:1">
+      <c r="A2573" s="5" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:1">
+      <c r="A2574" s="5" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:1">
+      <c r="A2575" s="5" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:1">
+      <c r="A2576" s="5" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:1">
+      <c r="A2577" s="5" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:1">
+      <c r="A2578" s="5" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:1">
+      <c r="A2579" s="5" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:1">
+      <c r="A2580" s="5" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:1">
+      <c r="A2581" s="5" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:1">
+      <c r="A2582" s="5" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:1">
+      <c r="A2583" s="5" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:1">
+      <c r="A2584" s="5" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:1">
+      <c r="A2585" s="5" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:1">
+      <c r="A2586" s="5" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:1">
+      <c r="A2587" s="5" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:1">
+      <c r="A2588" s="5" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:1">
+      <c r="A2589" s="5" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:1">
+      <c r="A2590" s="5" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:1">
+      <c r="A2591" s="5" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:1">
+      <c r="A2592" s="5" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:1">
+      <c r="A2593" s="5" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:1">
+      <c r="A2594" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:1">
+      <c r="A2595" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:1">
+      <c r="A2596" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:1">
+      <c r="A2597" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:1">
+      <c r="A2598" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:1">
+      <c r="A2599" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:1">
+      <c r="A2600" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:1">
+      <c r="A2601" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:1">
+      <c r="A2602" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:1">
+      <c r="A2603" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:1">
+      <c r="A2604" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:1">
+      <c r="A2605" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:1">
+      <c r="A2606" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:1">
+      <c r="A2607" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:1" ht="15.75">
+      <c r="A2608" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:1">
+      <c r="A2609" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:1">
+      <c r="A2610" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:1">
+      <c r="A2611" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:1">
+      <c r="A2612" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:1">
+      <c r="A2613" t="s">
+        <v>2612</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:A3925">
     <sortCondition ref="A1070"/>
   </sortState>
   <conditionalFormatting sqref="A1915:A1048576 A1:A661">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1014 A1016:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2150:A2608">
+    <cfRule type="duplicateValues" dxfId="2" priority="7485"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2594:A2607">
+    <cfRule type="duplicateValues" dxfId="1" priority="7499"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2150:A2607">
+    <cfRule type="duplicateValues" dxfId="0" priority="7500"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
